--- a/CPBL_hitter.xlsx
+++ b/CPBL_hitter.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="189">
   <si>
     <t>球員</t>
   </si>
@@ -89,6 +89,9 @@
     <t>黃韋盛</t>
   </si>
   <si>
+    <t>中信兄弟</t>
+  </si>
+  <si>
     <t>王威晨</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
     <t>王博玄</t>
   </si>
   <si>
+    <t>台鋼雄鷹</t>
+  </si>
+  <si>
     <t>曾子祐</t>
   </si>
   <si>
@@ -248,6 +254,9 @@
     <t>李凱威</t>
   </si>
   <si>
+    <t>味全龍</t>
+  </si>
+  <si>
     <t>吉力吉撈．鞏冠</t>
   </si>
   <si>
@@ -329,6 +338,9 @@
     <t>李宗賢</t>
   </si>
   <si>
+    <t>富邦悍將</t>
+  </si>
+  <si>
     <t>陳真</t>
   </si>
   <si>
@@ -422,6 +434,9 @@
     <t>陳晨威</t>
   </si>
   <si>
+    <t>樂天桃園</t>
+  </si>
+  <si>
     <t>林立</t>
   </si>
   <si>
@@ -501,6 +516,9 @@
   </si>
   <si>
     <t>邱智呈</t>
+  </si>
+  <si>
+    <t>統一7-ELEVEn獅</t>
   </si>
   <si>
     <t>蘇智傑</t>
@@ -1602,8 +1620,8 @@
   <sheetPr/>
   <dimension ref="A1:S164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="N148" sqref="N148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1674,8 +1692,8 @@
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3">
-        <v>66</v>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="3">
         <v>66</v>
@@ -1731,10 +1749,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="4">
-        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>9</v>
@@ -1790,10 +1808,10 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3">
-        <v>74</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="3">
         <v>74</v>
@@ -1849,10 +1867,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="4">
         <v>29</v>
@@ -1908,10 +1926,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1967,10 +1985,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>90</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="4">
         <v>90</v>
@@ -2026,10 +2044,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>39</v>
@@ -2085,10 +2103,10 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4">
-        <v>88</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <v>88</v>
@@ -2144,10 +2162,10 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>65</v>
@@ -2203,10 +2221,10 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="4">
         <v>28</v>
@@ -2262,10 +2280,10 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>61</v>
@@ -2321,10 +2339,10 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4">
-        <v>98</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="4">
         <v>98</v>
@@ -2380,10 +2398,10 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
@@ -2439,10 +2457,10 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -2498,10 +2516,10 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -2557,10 +2575,10 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="4">
-        <v>68</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="4">
         <v>68</v>
@@ -2616,10 +2634,10 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>43</v>
@@ -2675,10 +2693,10 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C19" s="4">
         <v>13</v>
@@ -2734,10 +2752,10 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>92</v>
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C20" s="3">
         <v>92</v>
@@ -2793,10 +2811,10 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C21" s="4">
         <v>47</v>
@@ -2850,10 +2868,10 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="3">
         <v>48</v>
@@ -2909,10 +2927,10 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C23" s="4">
         <v>75</v>
@@ -2966,10 +2984,10 @@
     </row>
     <row r="24" ht="18" spans="1:19">
       <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="3">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="3">
         <v>72</v>
@@ -3025,10 +3043,10 @@
     </row>
     <row r="25" ht="18" spans="1:19">
       <c r="A25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="5">
         <v>6</v>
@@ -3084,10 +3102,10 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -3143,10 +3161,10 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" s="3">
-        <v>9</v>
       </c>
       <c r="C27" s="3">
         <v>9</v>
@@ -3202,10 +3220,10 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="4">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="4">
         <v>94</v>
@@ -3261,10 +3279,10 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="3">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="3">
         <v>29</v>
@@ -3320,10 +3338,10 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="4">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C30" s="4">
         <v>39</v>
@@ -3379,9 +3397,9 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="3">
+        <v>50</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="3">
@@ -3438,10 +3456,10 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="4">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C32" s="4">
         <v>43</v>
@@ -3497,10 +3515,10 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="3">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="3">
         <v>24</v>
@@ -3556,10 +3574,10 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="4">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="4">
         <v>88</v>
@@ -3615,10 +3633,10 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="3">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="3">
         <v>16</v>
@@ -3674,10 +3692,10 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="4">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C36" s="4">
         <v>71</v>
@@ -3733,10 +3751,10 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="3">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C37" s="3">
         <v>78</v>
@@ -3792,10 +3810,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="4">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C38" s="4">
         <v>15</v>
@@ -3851,10 +3869,10 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="3">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C39" s="3">
         <v>7</v>
@@ -3910,10 +3928,10 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="4">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C40" s="4">
         <v>73</v>
@@ -3969,10 +3987,10 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="3">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C41" s="3">
         <v>59</v>
@@ -4028,10 +4046,10 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="4">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C42" s="4">
         <v>33</v>
@@ -4087,10 +4105,10 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="3">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C43" s="3">
         <v>42</v>
@@ -4146,10 +4164,10 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="4">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C44" s="4">
         <v>50</v>
@@ -4205,10 +4223,10 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="3">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="3">
         <v>8</v>
@@ -4264,10 +4282,10 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="4">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C46" s="4">
         <v>64</v>
@@ -4323,10 +4341,10 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="3">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C47" s="3">
         <v>25</v>
@@ -4382,10 +4400,10 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="4">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C48" s="4">
         <v>27</v>
@@ -4441,10 +4459,10 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="3">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C49" s="3">
         <v>5</v>
@@ -4500,10 +4518,10 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="4">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C50" s="4">
         <v>36</v>
@@ -4557,10 +4575,10 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="3">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C51" s="3">
         <v>37</v>
@@ -4616,10 +4634,10 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="4">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C52" s="4">
         <v>79</v>
@@ -4675,10 +4693,10 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="3">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C53" s="3">
         <v>31</v>
@@ -4734,10 +4752,10 @@
     </row>
     <row r="54" ht="18" spans="1:19">
       <c r="A54" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
@@ -4793,10 +4811,10 @@
     </row>
     <row r="55" ht="18" spans="1:19">
       <c r="A55" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="6">
-        <v>21</v>
+        <v>74</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C55" s="6">
         <v>21</v>
@@ -4852,10 +4870,10 @@
     </row>
     <row r="56" ht="34.5" spans="1:19">
       <c r="A56" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="7">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C56" s="7">
         <v>4</v>
@@ -4911,10 +4929,10 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="8">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C57" s="8">
         <v>11</v>
@@ -4970,10 +4988,10 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B58" s="7">
-        <v>46</v>
       </c>
       <c r="C58" s="7">
         <v>46</v>
@@ -5029,10 +5047,10 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="8">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -5088,10 +5106,10 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="7">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C60" s="7">
         <v>25</v>
@@ -5147,10 +5165,10 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="8">
-        <v>24</v>
+        <v>81</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C61" s="8">
         <v>24</v>
@@ -5206,10 +5224,10 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="7">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C62" s="7">
         <v>63</v>
@@ -5265,10 +5283,10 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="8">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C63" s="8">
         <v>2</v>
@@ -5324,10 +5342,10 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="7">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C64" s="7">
         <v>6</v>
@@ -5383,10 +5401,10 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="8">
-        <v>50</v>
+        <v>85</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C65" s="8">
         <v>50</v>
@@ -5442,10 +5460,10 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="7">
-        <v>31</v>
+        <v>86</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C66" s="7">
         <v>31</v>
@@ -5501,10 +5519,10 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="8">
-        <v>23</v>
+        <v>87</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C67" s="8">
         <v>23</v>
@@ -5560,10 +5578,10 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="7">
-        <v>44</v>
+        <v>88</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C68" s="7">
         <v>44</v>
@@ -5619,10 +5637,10 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="8">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C69" s="8">
         <v>82</v>
@@ -5678,10 +5696,10 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="7">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C70" s="7">
         <v>9</v>
@@ -5737,10 +5755,10 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="8">
-        <v>34</v>
+        <v>91</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C71" s="8">
         <v>34</v>
@@ -5796,10 +5814,10 @@
     </row>
     <row r="72" ht="34.5" spans="1:19">
       <c r="A72" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="7">
-        <v>57</v>
+        <v>92</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C72" s="7">
         <v>57</v>
@@ -5855,10 +5873,10 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="8">
-        <v>72</v>
+        <v>93</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C73" s="8">
         <v>72</v>
@@ -5914,10 +5932,10 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="7">
-        <v>10</v>
+        <v>94</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="7">
         <v>10</v>
@@ -5973,10 +5991,10 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="8">
-        <v>7</v>
+        <v>95</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C75" s="8">
         <v>7</v>
@@ -6032,10 +6050,10 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="7">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C76" s="7">
         <v>22</v>
@@ -6091,10 +6109,10 @@
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="8">
-        <v>58</v>
+        <v>97</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C77" s="8">
         <v>58</v>
@@ -6139,7 +6157,7 @@
         <v>50</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R77" s="8">
         <v>0</v>
@@ -6150,10 +6168,10 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B78" s="7">
-        <v>88</v>
+        <v>99</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C78" s="7">
         <v>88</v>
@@ -6209,10 +6227,10 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="8">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C79" s="8">
         <v>81</v>
@@ -6268,10 +6286,10 @@
     </row>
     <row r="80" ht="52.5" spans="1:19">
       <c r="A80" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="7">
-        <v>3</v>
+        <v>101</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C80" s="7">
         <v>3</v>
@@ -6327,10 +6345,10 @@
     </row>
     <row r="81" ht="18" spans="1:19">
       <c r="A81" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="6">
-        <v>22</v>
+        <v>102</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C81" s="6">
         <v>22</v>
@@ -6386,10 +6404,10 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B82" s="7">
-        <v>7</v>
+        <v>104</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C82" s="7">
         <v>7</v>
@@ -6445,10 +6463,10 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" s="8">
-        <v>29</v>
+        <v>105</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C83" s="8">
         <v>29</v>
@@ -6504,10 +6522,10 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="7">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C84" s="7">
         <v>99</v>
@@ -6563,10 +6581,10 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B85" s="8">
-        <v>46</v>
       </c>
       <c r="C85" s="8">
         <v>46</v>
@@ -6622,10 +6640,10 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B86" s="7">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C86" s="7">
         <v>95</v>
@@ -6681,10 +6699,10 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" s="8">
-        <v>78</v>
+        <v>109</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C87" s="8">
         <v>78</v>
@@ -6740,10 +6758,10 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B88" s="7">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
@@ -6799,10 +6817,10 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" s="8">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C89" s="8">
         <v>5</v>
@@ -6858,10 +6876,10 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B90" s="7">
-        <v>65</v>
+        <v>112</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C90" s="7">
         <v>65</v>
@@ -6917,10 +6935,10 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" s="8">
-        <v>77</v>
+        <v>113</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C91" s="8">
         <v>77</v>
@@ -6976,10 +6994,10 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="7">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C92" s="7">
         <v>6</v>
@@ -7035,10 +7053,10 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" s="8">
-        <v>59</v>
+        <v>115</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C93" s="8">
         <v>59</v>
@@ -7094,10 +7112,10 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" s="7">
-        <v>62</v>
+        <v>116</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C94" s="7">
         <v>62</v>
@@ -7153,10 +7171,10 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95" s="8">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C95" s="8">
         <v>97</v>
@@ -7212,10 +7230,10 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="7">
-        <v>43</v>
+        <v>118</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C96" s="7">
         <v>43</v>
@@ -7271,10 +7289,10 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" s="8">
-        <v>82</v>
+        <v>119</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C97" s="8">
         <v>82</v>
@@ -7330,10 +7348,10 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B98" s="7">
-        <v>98</v>
+        <v>120</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C98" s="7">
         <v>98</v>
@@ -7389,10 +7407,10 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B99" s="8">
-        <v>33</v>
+        <v>121</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C99" s="8">
         <v>33</v>
@@ -7448,10 +7466,10 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B100" s="7">
-        <v>2</v>
+        <v>122</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C100" s="7">
         <v>2</v>
@@ -7507,10 +7525,10 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" s="8">
-        <v>61</v>
+        <v>123</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C101" s="8">
         <v>61</v>
@@ -7566,10 +7584,10 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B102" s="7">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C102" s="7">
         <v>3</v>
@@ -7625,10 +7643,10 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B103" s="8">
-        <v>35</v>
+        <v>125</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C103" s="8">
         <v>35</v>
@@ -7684,10 +7702,10 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B104" s="7">
-        <v>85</v>
+        <v>126</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C104" s="7">
         <v>85</v>
@@ -7743,10 +7761,10 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" s="8">
-        <v>4</v>
+        <v>127</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C105" s="8">
         <v>4</v>
@@ -7802,10 +7820,10 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B106" s="7">
-        <v>63</v>
+        <v>128</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C106" s="7">
         <v>63</v>
@@ -7861,10 +7879,10 @@
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B107" s="8">
-        <v>67</v>
+        <v>129</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C107" s="8">
         <v>67</v>
@@ -7920,10 +7938,10 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B108" s="7">
-        <v>47</v>
+        <v>130</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C108" s="7">
         <v>47</v>
@@ -7979,10 +7997,10 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B109" s="8">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C109" s="8">
         <v>0</v>
@@ -8038,10 +8056,10 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B110" s="7">
-        <v>9</v>
+        <v>132</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C110" s="7">
         <v>9</v>
@@ -8097,10 +8115,10 @@
     </row>
     <row r="111" ht="18" spans="1:19">
       <c r="A111" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" s="8">
-        <v>56</v>
+        <v>133</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C111" s="8">
         <v>56</v>
@@ -8156,10 +8174,10 @@
     </row>
     <row r="112" ht="18" spans="1:19">
       <c r="A112" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B112" s="6">
-        <v>98</v>
+        <v>134</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C112" s="6">
         <v>98</v>
@@ -8215,10 +8233,10 @@
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B113" s="7">
-        <v>39</v>
+        <v>136</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C113" s="7">
         <v>39</v>
@@ -8274,10 +8292,10 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" s="8">
-        <v>5</v>
+        <v>137</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C114" s="8">
         <v>5</v>
@@ -8333,10 +8351,10 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B115" s="7">
-        <v>11</v>
+        <v>138</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C115" s="7">
         <v>11</v>
@@ -8392,10 +8410,10 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B116" s="8">
-        <v>58</v>
+        <v>139</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C116" s="8">
         <v>58</v>
@@ -8451,10 +8469,10 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="B117" s="7">
-        <v>15</v>
       </c>
       <c r="C117" s="7">
         <v>15</v>
@@ -8510,10 +8528,10 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B118" s="8">
-        <v>94</v>
+        <v>141</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C118" s="8">
         <v>94</v>
@@ -8569,10 +8587,10 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B119" s="7">
-        <v>28</v>
+        <v>142</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C119" s="7">
         <v>28</v>
@@ -8628,10 +8646,10 @@
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B120" s="8">
-        <v>35</v>
+        <v>143</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C120" s="8">
         <v>35</v>
@@ -8687,10 +8705,10 @@
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B121" s="7">
-        <v>38</v>
+        <v>144</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C121" s="7">
         <v>38</v>
@@ -8746,10 +8764,10 @@
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B122" s="8">
-        <v>65</v>
+        <v>145</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C122" s="8">
         <v>65</v>
@@ -8805,10 +8823,10 @@
     </row>
     <row r="123" spans="1:19">
       <c r="A123" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B123" s="7">
-        <v>79</v>
+        <v>146</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C123" s="7">
         <v>79</v>
@@ -8864,10 +8882,10 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B124" s="8">
-        <v>36</v>
+        <v>147</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C124" s="8">
         <v>36</v>
@@ -8923,10 +8941,10 @@
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B125" s="7">
-        <v>45</v>
+        <v>148</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C125" s="7">
         <v>45</v>
@@ -8982,10 +9000,10 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B126" s="8">
-        <v>95</v>
+        <v>149</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C126" s="8">
         <v>95</v>
@@ -9041,10 +9059,10 @@
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B127" s="7">
-        <v>2</v>
+        <v>150</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C127" s="7">
         <v>2</v>
@@ -9100,10 +9118,10 @@
     </row>
     <row r="128" spans="1:19">
       <c r="A128" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B128" s="8">
-        <v>33</v>
+        <v>151</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C128" s="8">
         <v>33</v>
@@ -9159,10 +9177,10 @@
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B129" s="7">
-        <v>55</v>
+        <v>152</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C129" s="7">
         <v>55</v>
@@ -9218,10 +9236,10 @@
     </row>
     <row r="130" spans="1:19">
       <c r="A130" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B130" s="8">
-        <v>12</v>
+        <v>153</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C130" s="8">
         <v>12</v>
@@ -9277,10 +9295,10 @@
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B131" s="7">
-        <v>8</v>
+        <v>154</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C131" s="7">
         <v>8</v>
@@ -9336,10 +9354,10 @@
     </row>
     <row r="132" spans="1:19">
       <c r="A132" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B132" s="8">
-        <v>97</v>
+        <v>155</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C132" s="8">
         <v>97</v>
@@ -9395,10 +9413,10 @@
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B133" s="7">
-        <v>89</v>
+        <v>156</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C133" s="7">
         <v>89</v>
@@ -9454,10 +9472,10 @@
     </row>
     <row r="134" spans="1:19">
       <c r="A134" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B134" s="8">
-        <v>6</v>
+        <v>157</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C134" s="8">
         <v>6</v>
@@ -9513,10 +9531,10 @@
     </row>
     <row r="135" spans="1:19">
       <c r="A135" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B135" s="7">
-        <v>31</v>
+        <v>158</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C135" s="7">
         <v>31</v>
@@ -9570,10 +9588,10 @@
     </row>
     <row r="136" spans="1:19">
       <c r="A136" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B136" s="8">
-        <v>67</v>
+        <v>159</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C136" s="8">
         <v>67</v>
@@ -9629,10 +9647,10 @@
     </row>
     <row r="137" spans="1:19">
       <c r="A137" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B137" s="7">
-        <v>24</v>
+        <v>160</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C137" s="7">
         <v>24</v>
@@ -9688,10 +9706,10 @@
     </row>
     <row r="138" ht="18" spans="1:19">
       <c r="A138" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B138" s="8">
-        <v>85</v>
+        <v>161</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C138" s="8">
         <v>85</v>
@@ -9745,12 +9763,12 @@
         <v>33.3</v>
       </c>
     </row>
-    <row r="139" ht="18" spans="1:19">
+    <row r="139" ht="52.5" spans="1:19">
       <c r="A139" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B139" s="6">
-        <v>14</v>
+        <v>162</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="C139" s="6">
         <v>14</v>
@@ -9804,12 +9822,12 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" ht="51.75" spans="1:19">
       <c r="A140" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B140" s="7">
-        <v>32</v>
+        <v>164</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C140" s="7">
         <v>32</v>
@@ -9863,12 +9881,12 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" ht="51.75" spans="1:19">
       <c r="A141" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B141" s="8">
-        <v>24</v>
+        <v>165</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C141" s="8">
         <v>24</v>
@@ -9922,12 +9940,12 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" ht="51.75" spans="1:19">
       <c r="A142" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B142" s="7">
-        <v>77</v>
+        <v>166</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C142" s="7">
         <v>77</v>
@@ -9981,12 +9999,12 @@
         <v>36.3</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" ht="51.75" spans="1:19">
       <c r="A143" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B143" s="8">
-        <v>35</v>
+        <v>167</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C143" s="8">
         <v>35</v>
@@ -10040,12 +10058,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" ht="51.75" spans="1:19">
       <c r="A144" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B144" s="7">
-        <v>25</v>
+        <v>168</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C144" s="7">
         <v>25</v>
@@ -10099,12 +10117,12 @@
         <v>33.3</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" ht="51.75" spans="1:19">
       <c r="A145" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="B145" s="8">
-        <v>15</v>
       </c>
       <c r="C145" s="8">
         <v>15</v>
@@ -10158,12 +10176,12 @@
         <v>35.8</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" ht="51.75" spans="1:19">
       <c r="A146" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B146" s="7">
-        <v>31</v>
+        <v>170</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C146" s="7">
         <v>31</v>
@@ -10217,12 +10235,12 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" ht="51.75" spans="1:19">
       <c r="A147" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B147" s="8">
-        <v>39</v>
+        <v>171</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C147" s="8">
         <v>39</v>
@@ -10276,12 +10294,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" ht="51.75" spans="1:19">
       <c r="A148" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B148" s="7">
-        <v>51</v>
+        <v>172</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C148" s="7">
         <v>51</v>
@@ -10335,12 +10353,12 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" ht="51.75" spans="1:19">
       <c r="A149" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B149" s="8">
-        <v>66</v>
+        <v>173</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C149" s="8">
         <v>66</v>
@@ -10394,12 +10412,12 @@
         <v>33.3</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" ht="51.75" spans="1:19">
       <c r="A150" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B150" s="7">
-        <v>8</v>
+        <v>174</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C150" s="7">
         <v>8</v>
@@ -10453,12 +10471,12 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" ht="51.75" spans="1:19">
       <c r="A151" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B151" s="8">
-        <v>65</v>
+        <v>175</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C151" s="8">
         <v>65</v>
@@ -10512,12 +10530,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" ht="51.75" spans="1:19">
       <c r="A152" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B152" s="7">
-        <v>2</v>
+        <v>176</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C152" s="7">
         <v>2</v>
@@ -10571,12 +10589,12 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" ht="51.75" spans="1:19">
       <c r="A153" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B153" s="8">
-        <v>67</v>
+        <v>177</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C153" s="8">
         <v>67</v>
@@ -10630,12 +10648,12 @@
         <v>37.7</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" ht="51.75" spans="1:19">
       <c r="A154" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B154" s="7">
-        <v>64</v>
+        <v>178</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C154" s="7">
         <v>64</v>
@@ -10689,12 +10707,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" ht="51.75" spans="1:19">
       <c r="A155" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B155" s="8">
-        <v>20</v>
+        <v>179</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C155" s="8">
         <v>20</v>
@@ -10748,12 +10766,12 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" ht="51.75" spans="1:19">
       <c r="A156" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B156" s="7">
-        <v>10</v>
+        <v>180</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C156" s="7">
         <v>10</v>
@@ -10807,12 +10825,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" ht="51.75" spans="1:19">
       <c r="A157" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B157" s="8">
-        <v>9</v>
+        <v>181</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C157" s="8">
         <v>9</v>
@@ -10866,12 +10884,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" ht="51.75" spans="1:19">
       <c r="A158" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B158" s="7">
-        <v>13</v>
+        <v>182</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C158" s="7">
         <v>13</v>
@@ -10925,12 +10943,12 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" ht="51.75" spans="1:19">
       <c r="A159" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B159" s="9">
-        <v>54</v>
+        <v>183</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C159" s="9">
         <v>54</v>
@@ -10984,12 +11002,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" ht="51.75" spans="1:19">
       <c r="A160" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B160" s="7">
-        <v>52</v>
+        <v>184</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C160" s="7">
         <v>52</v>
@@ -11043,12 +11061,12 @@
         <v>33.3</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" ht="51.75" spans="1:19">
       <c r="A161" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B161" s="8">
-        <v>49</v>
+        <v>185</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C161" s="8">
         <v>49</v>
@@ -11102,12 +11120,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" ht="51.75" spans="1:19">
       <c r="A162" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B162" s="7">
-        <v>6</v>
+        <v>186</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C162" s="7">
         <v>6</v>
@@ -11161,12 +11179,12 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" ht="51.75" spans="1:19">
       <c r="A163" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B163" s="8">
-        <v>4</v>
+        <v>187</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C163" s="8">
         <v>4</v>
@@ -11220,12 +11238,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" ht="51.75" spans="1:19">
       <c r="A164" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B164" s="7">
-        <v>38</v>
+        <v>188</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C164" s="7">
         <v>38</v>

--- a/CPBL_hitter.xlsx
+++ b/CPBL_hitter.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="190">
   <si>
     <t>球員</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>林志綱</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
   <si>
     <t>陳統恩</t>
@@ -1620,8 +1623,8 @@
   <sheetPr/>
   <dimension ref="A1:S164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="N148" sqref="N148"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -2858,7 +2861,9 @@
       <c r="P21" s="4">
         <v>0</v>
       </c>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="R21" s="4">
         <v>0</v>
       </c>
@@ -2868,7 +2873,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
@@ -2927,7 +2932,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
@@ -2950,7 +2955,9 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="J23" s="4">
         <v>0</v>
       </c>
@@ -2984,7 +2991,7 @@
     </row>
     <row r="24" ht="18" spans="1:19">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>20</v>
@@ -3043,10 +3050,10 @@
     </row>
     <row r="25" ht="18" spans="1:19">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5">
         <v>6</v>
@@ -3102,10 +3109,10 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -3161,10 +3168,10 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3">
         <v>9</v>
@@ -3220,10 +3227,10 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="4">
         <v>94</v>
@@ -3279,10 +3286,10 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3">
         <v>29</v>
@@ -3338,10 +3345,10 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="4">
         <v>39</v>
@@ -3397,10 +3404,10 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3">
         <v>44</v>
@@ -3456,10 +3463,10 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4">
         <v>43</v>
@@ -3515,10 +3522,10 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3">
         <v>24</v>
@@ -3574,10 +3581,10 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="4">
         <v>88</v>
@@ -3633,10 +3640,10 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3">
         <v>16</v>
@@ -3692,10 +3699,10 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="4">
         <v>71</v>
@@ -3751,10 +3758,10 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3">
         <v>78</v>
@@ -3810,10 +3817,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="4">
         <v>15</v>
@@ -3869,10 +3876,10 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="3">
         <v>7</v>
@@ -3928,10 +3935,10 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4">
         <v>73</v>
@@ -3987,10 +3994,10 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3">
         <v>59</v>
@@ -4046,10 +4053,10 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
         <v>33</v>
@@ -4105,10 +4112,10 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="3">
         <v>42</v>
@@ -4164,10 +4171,10 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="4">
         <v>50</v>
@@ -4223,10 +4230,10 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3">
         <v>8</v>
@@ -4282,10 +4289,10 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4">
         <v>64</v>
@@ -4341,10 +4348,10 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3">
         <v>25</v>
@@ -4400,10 +4407,10 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4">
         <v>27</v>
@@ -4459,10 +4466,10 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3">
         <v>5</v>
@@ -4518,10 +4525,10 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" s="4">
         <v>36</v>
@@ -4565,7 +4572,9 @@
       <c r="P50" s="4">
         <v>0</v>
       </c>
-      <c r="Q50" s="4"/>
+      <c r="Q50" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="R50" s="4">
         <v>0</v>
       </c>
@@ -4575,10 +4584,10 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3">
         <v>37</v>
@@ -4634,10 +4643,10 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C52" s="4">
         <v>79</v>
@@ -4693,10 +4702,10 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3">
         <v>31</v>
@@ -4752,10 +4761,10 @@
     </row>
     <row r="54" ht="18" spans="1:19">
       <c r="A54" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
@@ -4811,10 +4820,10 @@
     </row>
     <row r="55" ht="18" spans="1:19">
       <c r="A55" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="6">
         <v>21</v>
@@ -4870,10 +4879,10 @@
     </row>
     <row r="56" ht="34.5" spans="1:19">
       <c r="A56" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="C56" s="7">
         <v>4</v>
@@ -4929,10 +4938,10 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="8">
         <v>11</v>
@@ -4988,10 +4997,10 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" s="7">
         <v>46</v>
@@ -5047,10 +5056,10 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -5106,10 +5115,10 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="7">
         <v>25</v>
@@ -5165,10 +5174,10 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="8">
         <v>24</v>
@@ -5224,10 +5233,10 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" s="7">
         <v>63</v>
@@ -5283,10 +5292,10 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" s="8">
         <v>2</v>
@@ -5342,10 +5351,10 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" s="7">
         <v>6</v>
@@ -5401,10 +5410,10 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C65" s="8">
         <v>50</v>
@@ -5460,10 +5469,10 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66" s="7">
         <v>31</v>
@@ -5519,10 +5528,10 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" s="8">
         <v>23</v>
@@ -5578,10 +5587,10 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C68" s="7">
         <v>44</v>
@@ -5637,10 +5646,10 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C69" s="8">
         <v>82</v>
@@ -5696,10 +5705,10 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" s="7">
         <v>9</v>
@@ -5755,10 +5764,10 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71" s="8">
         <v>34</v>
@@ -5814,10 +5823,10 @@
     </row>
     <row r="72" ht="34.5" spans="1:19">
       <c r="A72" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" s="7">
         <v>57</v>
@@ -5873,10 +5882,10 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="8">
         <v>72</v>
@@ -5932,10 +5941,10 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="7">
         <v>10</v>
@@ -5991,10 +6000,10 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="8">
         <v>7</v>
@@ -6050,10 +6059,10 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" s="7">
         <v>22</v>
@@ -6109,10 +6118,10 @@
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="8">
         <v>58</v>
@@ -6157,7 +6166,7 @@
         <v>50</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R77" s="8">
         <v>0</v>
@@ -6168,10 +6177,10 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" s="7">
         <v>88</v>
@@ -6227,10 +6236,10 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="8">
         <v>81</v>
@@ -6286,10 +6295,10 @@
     </row>
     <row r="80" ht="52.5" spans="1:19">
       <c r="A80" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="7">
         <v>3</v>
@@ -6345,10 +6354,10 @@
     </row>
     <row r="81" ht="18" spans="1:19">
       <c r="A81" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81" s="6">
         <v>22</v>
@@ -6404,10 +6413,10 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="C82" s="7">
         <v>7</v>
@@ -6463,10 +6472,10 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C83" s="8">
         <v>29</v>
@@ -6522,10 +6531,10 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C84" s="7">
         <v>99</v>
@@ -6581,10 +6590,10 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85" s="8">
         <v>46</v>
@@ -6640,10 +6649,10 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C86" s="7">
         <v>95</v>
@@ -6699,10 +6708,10 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" s="8">
         <v>78</v>
@@ -6758,10 +6767,10 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
@@ -6817,10 +6826,10 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89" s="8">
         <v>5</v>
@@ -6876,10 +6885,10 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C90" s="7">
         <v>65</v>
@@ -6935,10 +6944,10 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" s="8">
         <v>77</v>
@@ -6994,10 +7003,10 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C92" s="7">
         <v>6</v>
@@ -7053,10 +7062,10 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" s="8">
         <v>59</v>
@@ -7112,10 +7121,10 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C94" s="7">
         <v>62</v>
@@ -7171,10 +7180,10 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="8">
         <v>97</v>
@@ -7230,10 +7239,10 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C96" s="7">
         <v>43</v>
@@ -7289,10 +7298,10 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97" s="8">
         <v>82</v>
@@ -7348,10 +7357,10 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C98" s="7">
         <v>98</v>
@@ -7407,10 +7416,10 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99" s="8">
         <v>33</v>
@@ -7466,10 +7475,10 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" s="7">
         <v>2</v>
@@ -7525,10 +7534,10 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="8">
         <v>61</v>
@@ -7584,10 +7593,10 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" s="7">
         <v>3</v>
@@ -7643,10 +7652,10 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" s="8">
         <v>35</v>
@@ -7702,10 +7711,10 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" s="7">
         <v>85</v>
@@ -7761,10 +7770,10 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" s="8">
         <v>4</v>
@@ -7820,10 +7829,10 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="7">
         <v>63</v>
@@ -7879,10 +7888,10 @@
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" s="8">
         <v>67</v>
@@ -7938,10 +7947,10 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="7">
         <v>47</v>
@@ -7997,10 +8006,10 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109" s="8">
         <v>0</v>
@@ -8056,10 +8065,10 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C110" s="7">
         <v>9</v>
@@ -8115,10 +8124,10 @@
     </row>
     <row r="111" ht="18" spans="1:19">
       <c r="A111" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" s="8">
         <v>56</v>
@@ -8174,10 +8183,10 @@
     </row>
     <row r="112" ht="18" spans="1:19">
       <c r="A112" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C112" s="6">
         <v>98</v>
@@ -8233,10 +8242,10 @@
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="C113" s="7">
         <v>39</v>
@@ -8292,10 +8301,10 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C114" s="8">
         <v>5</v>
@@ -8351,10 +8360,10 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C115" s="7">
         <v>11</v>
@@ -8410,10 +8419,10 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C116" s="8">
         <v>58</v>
@@ -8469,10 +8478,10 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C117" s="7">
         <v>15</v>
@@ -8528,10 +8537,10 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C118" s="8">
         <v>94</v>
@@ -8587,10 +8596,10 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C119" s="7">
         <v>28</v>
@@ -8646,10 +8655,10 @@
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C120" s="8">
         <v>35</v>
@@ -8705,10 +8714,10 @@
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C121" s="7">
         <v>38</v>
@@ -8764,10 +8773,10 @@
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C122" s="8">
         <v>65</v>
@@ -8823,10 +8832,10 @@
     </row>
     <row r="123" spans="1:19">
       <c r="A123" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C123" s="7">
         <v>79</v>
@@ -8882,10 +8891,10 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C124" s="8">
         <v>36</v>
@@ -8941,10 +8950,10 @@
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C125" s="7">
         <v>45</v>
@@ -9000,10 +9009,10 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C126" s="8">
         <v>95</v>
@@ -9059,10 +9068,10 @@
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C127" s="7">
         <v>2</v>
@@ -9118,10 +9127,10 @@
     </row>
     <row r="128" spans="1:19">
       <c r="A128" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C128" s="8">
         <v>33</v>
@@ -9177,10 +9186,10 @@
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C129" s="7">
         <v>55</v>
@@ -9236,10 +9245,10 @@
     </row>
     <row r="130" spans="1:19">
       <c r="A130" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C130" s="8">
         <v>12</v>
@@ -9295,10 +9304,10 @@
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C131" s="7">
         <v>8</v>
@@ -9354,10 +9363,10 @@
     </row>
     <row r="132" spans="1:19">
       <c r="A132" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C132" s="8">
         <v>97</v>
@@ -9413,10 +9422,10 @@
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133" s="7">
         <v>89</v>
@@ -9472,10 +9481,10 @@
     </row>
     <row r="134" spans="1:19">
       <c r="A134" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134" s="8">
         <v>6</v>
@@ -9531,10 +9540,10 @@
     </row>
     <row r="135" spans="1:19">
       <c r="A135" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" s="7">
         <v>31</v>
@@ -9554,7 +9563,9 @@
       <c r="H135" s="7">
         <v>0</v>
       </c>
-      <c r="I135" s="7"/>
+      <c r="I135" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="J135" s="7">
         <v>0</v>
       </c>
@@ -9588,10 +9599,10 @@
     </row>
     <row r="136" spans="1:19">
       <c r="A136" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" s="8">
         <v>67</v>
@@ -9647,10 +9658,10 @@
     </row>
     <row r="137" spans="1:19">
       <c r="A137" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C137" s="7">
         <v>24</v>
@@ -9706,10 +9717,10 @@
     </row>
     <row r="138" ht="18" spans="1:19">
       <c r="A138" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C138" s="8">
         <v>85</v>
@@ -9765,10 +9776,10 @@
     </row>
     <row r="139" ht="52.5" spans="1:19">
       <c r="A139" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C139" s="6">
         <v>14</v>
@@ -9824,10 +9835,10 @@
     </row>
     <row r="140" ht="51.75" spans="1:19">
       <c r="A140" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="C140" s="7">
         <v>32</v>
@@ -9883,10 +9894,10 @@
     </row>
     <row r="141" ht="51.75" spans="1:19">
       <c r="A141" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C141" s="8">
         <v>24</v>
@@ -9942,10 +9953,10 @@
     </row>
     <row r="142" ht="51.75" spans="1:19">
       <c r="A142" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C142" s="7">
         <v>77</v>
@@ -10001,10 +10012,10 @@
     </row>
     <row r="143" ht="51.75" spans="1:19">
       <c r="A143" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C143" s="8">
         <v>35</v>
@@ -10060,10 +10071,10 @@
     </row>
     <row r="144" ht="51.75" spans="1:19">
       <c r="A144" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C144" s="7">
         <v>25</v>
@@ -10119,10 +10130,10 @@
     </row>
     <row r="145" ht="51.75" spans="1:19">
       <c r="A145" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C145" s="8">
         <v>15</v>
@@ -10178,10 +10189,10 @@
     </row>
     <row r="146" ht="51.75" spans="1:19">
       <c r="A146" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C146" s="7">
         <v>31</v>
@@ -10237,10 +10248,10 @@
     </row>
     <row r="147" ht="51.75" spans="1:19">
       <c r="A147" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C147" s="8">
         <v>39</v>
@@ -10296,10 +10307,10 @@
     </row>
     <row r="148" ht="51.75" spans="1:19">
       <c r="A148" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C148" s="7">
         <v>51</v>
@@ -10355,10 +10366,10 @@
     </row>
     <row r="149" ht="51.75" spans="1:19">
       <c r="A149" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C149" s="8">
         <v>66</v>
@@ -10414,10 +10425,10 @@
     </row>
     <row r="150" ht="51.75" spans="1:19">
       <c r="A150" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C150" s="7">
         <v>8</v>
@@ -10473,10 +10484,10 @@
     </row>
     <row r="151" ht="51.75" spans="1:19">
       <c r="A151" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C151" s="8">
         <v>65</v>
@@ -10532,10 +10543,10 @@
     </row>
     <row r="152" ht="51.75" spans="1:19">
       <c r="A152" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C152" s="7">
         <v>2</v>
@@ -10591,10 +10602,10 @@
     </row>
     <row r="153" ht="51.75" spans="1:19">
       <c r="A153" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C153" s="8">
         <v>67</v>
@@ -10650,10 +10661,10 @@
     </row>
     <row r="154" ht="51.75" spans="1:19">
       <c r="A154" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C154" s="7">
         <v>64</v>
@@ -10709,10 +10720,10 @@
     </row>
     <row r="155" ht="51.75" spans="1:19">
       <c r="A155" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C155" s="8">
         <v>20</v>
@@ -10768,10 +10779,10 @@
     </row>
     <row r="156" ht="51.75" spans="1:19">
       <c r="A156" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C156" s="7">
         <v>10</v>
@@ -10827,10 +10838,10 @@
     </row>
     <row r="157" ht="51.75" spans="1:19">
       <c r="A157" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C157" s="8">
         <v>9</v>
@@ -10886,10 +10897,10 @@
     </row>
     <row r="158" ht="51.75" spans="1:19">
       <c r="A158" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C158" s="7">
         <v>13</v>
@@ -10945,10 +10956,10 @@
     </row>
     <row r="159" ht="51.75" spans="1:19">
       <c r="A159" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C159" s="9">
         <v>54</v>
@@ -11004,10 +11015,10 @@
     </row>
     <row r="160" ht="51.75" spans="1:19">
       <c r="A160" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C160" s="7">
         <v>52</v>
@@ -11063,10 +11074,10 @@
     </row>
     <row r="161" ht="51.75" spans="1:19">
       <c r="A161" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161" s="8">
         <v>49</v>
@@ -11122,10 +11133,10 @@
     </row>
     <row r="162" ht="51.75" spans="1:19">
       <c r="A162" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C162" s="7">
         <v>6</v>
@@ -11181,10 +11192,10 @@
     </row>
     <row r="163" ht="51.75" spans="1:19">
       <c r="A163" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C163" s="8">
         <v>4</v>
@@ -11240,10 +11251,10 @@
     </row>
     <row r="164" ht="51.75" spans="1:19">
       <c r="A164" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" s="7">
         <v>38</v>
@@ -11287,7 +11298,9 @@
       <c r="P164" s="7">
         <v>0</v>
       </c>
-      <c r="Q164" s="7"/>
+      <c r="Q164" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="R164" s="7">
         <v>0</v>
       </c>
